--- a/Doc/bkh.xlsx
+++ b/Doc/bkh.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\sudoku\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\sudoku\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20736" windowHeight="9192"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="9195"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="34">
   <si>
     <t>Tìm hiểu về các stack</t>
   </si>
@@ -123,6 +123,9 @@
   </si>
   <si>
     <t>Hoàn tthành(09/10/2018)</t>
+  </si>
+  <si>
+    <t>Trễ hẹn( 09/11/2018)</t>
   </si>
 </sst>
 </file>
@@ -231,14 +234,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -673,32 +676,32 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.88671875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="54.109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="17.88671875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="18.44140625" style="1" customWidth="1"/>
-    <col min="5" max="6" width="24.33203125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="31.6640625" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="6.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="54.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" style="1" customWidth="1"/>
+    <col min="5" max="6" width="24.28515625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="31.7109375" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:7" s="2" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-    </row>
-    <row r="2" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+    </row>
+    <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>10</v>
       </c>
@@ -717,11 +720,11 @@
       <c r="F2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="15" t="s">
+      <c r="G2" s="13" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>1</v>
       </c>
@@ -744,7 +747,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>2</v>
       </c>
@@ -765,7 +768,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>3</v>
       </c>
@@ -788,7 +791,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>4</v>
       </c>
@@ -811,7 +814,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>5</v>
       </c>
@@ -832,7 +835,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>6</v>
       </c>
@@ -849,9 +852,11 @@
       <c r="F8" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="G8" s="8"/>
-    </row>
-    <row r="9" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G8" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>7</v>
       </c>
@@ -872,7 +877,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>8</v>
       </c>
@@ -893,7 +898,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>9</v>
       </c>
@@ -912,7 +917,7 @@
       </c>
       <c r="G11" s="8"/>
     </row>
-    <row r="12" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>10</v>
       </c>
@@ -933,7 +938,7 @@
       </c>
       <c r="G12" s="8"/>
     </row>
-    <row r="13" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
         <v>11</v>
       </c>
@@ -954,7 +959,7 @@
       </c>
       <c r="G13" s="8"/>
     </row>
-    <row r="14" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <v>12</v>
       </c>

--- a/Doc/bkh.xlsx
+++ b/Doc/bkh.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="34">
   <si>
     <t>Tìm hiểu về các stack</t>
   </si>
@@ -35,9 +35,6 @@
     <t>Viết hàm kiểm tra trùng</t>
   </si>
   <si>
-    <t>Viết hàm giải cho ma trận</t>
-  </si>
-  <si>
     <t>Thêm từng level cho game</t>
   </si>
   <si>
@@ -126,6 +123,9 @@
   </si>
   <si>
     <t>Trễ hẹn( 09/11/2018)</t>
+  </si>
+  <si>
+    <t>Viết hàm giải cho ma trận bằng stack</t>
   </si>
 </sst>
 </file>
@@ -676,7 +676,7 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -692,7 +692,7 @@
   <sheetData>
     <row r="1" spans="1:7" s="2" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B1" s="15"/>
       <c r="C1" s="15"/>
@@ -703,25 +703,25 @@
     </row>
     <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>13</v>
-      </c>
       <c r="G2" s="13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -738,13 +738,13 @@
         <v>1</v>
       </c>
       <c r="E3" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="7" t="s">
         <v>26</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -759,13 +759,13 @@
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="6" t="s">
-        <v>25</v>
-      </c>
       <c r="G4" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -773,7 +773,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>1</v>
@@ -782,13 +782,13 @@
         <v>1</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F5" s="9">
         <v>43291</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -796,7 +796,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>1</v>
@@ -805,13 +805,13 @@
         <v>1</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F6" s="10">
         <v>43291</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -819,7 +819,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4" t="s">
@@ -829,10 +829,10 @@
         <v>43291</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -840,7 +840,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>1</v>
@@ -850,10 +850,10 @@
         <v>43291</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -861,20 +861,20 @@
         <v>7</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4" t="s">
-        <v>1</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" s="4"/>
       <c r="E9" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F9" s="10">
         <v>43291</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -882,20 +882,20 @@
         <v>8</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>1</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="F10" s="6" t="s">
-        <v>22</v>
-      </c>
       <c r="G10" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -903,17 +903,17 @@
         <v>9</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4" t="s">
         <v>1</v>
       </c>
       <c r="E11" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" s="6" t="s">
         <v>21</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>22</v>
       </c>
       <c r="G11" s="8"/>
     </row>
@@ -922,7 +922,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>1</v>
@@ -931,10 +931,10 @@
         <v>1</v>
       </c>
       <c r="E12" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12" s="6" t="s">
         <v>22</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>23</v>
       </c>
       <c r="G12" s="8"/>
     </row>
@@ -943,7 +943,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C13" s="8" t="s">
         <v>1</v>
@@ -952,10 +952,10 @@
         <v>1</v>
       </c>
       <c r="E13" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13" s="12" t="s">
         <v>22</v>
-      </c>
-      <c r="F13" s="12" t="s">
-        <v>23</v>
       </c>
       <c r="G13" s="8"/>
     </row>
@@ -964,7 +964,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C14" s="8" t="s">
         <v>1</v>
@@ -973,10 +973,10 @@
         <v>1</v>
       </c>
       <c r="E14" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F14" s="12" t="s">
         <v>22</v>
-      </c>
-      <c r="F14" s="12" t="s">
-        <v>23</v>
       </c>
       <c r="G14" s="8"/>
     </row>

--- a/Doc/bkh.xlsx
+++ b/Doc/bkh.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="34">
   <si>
     <t>Tìm hiểu về các stack</t>
   </si>
@@ -136,7 +136,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -144,7 +144,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -152,14 +152,14 @@
       <b/>
       <sz val="20"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -245,7 +245,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Chuẩn" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="10">
     <dxf>
@@ -676,21 +676,21 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="54.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="17.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="18.42578125" style="1" customWidth="1"/>
-    <col min="5" max="6" width="24.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="31.7109375" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.85546875" style="1"/>
+    <col min="1" max="1" width="6.875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="54.125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="18.375" style="1" customWidth="1"/>
+    <col min="5" max="6" width="24.25" style="1" customWidth="1"/>
+    <col min="7" max="7" width="31.75" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="2" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
         <v>18</v>
       </c>
@@ -701,7 +701,7 @@
       <c r="F1" s="15"/>
       <c r="G1" s="15"/>
     </row>
-    <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>9</v>
       </c>
@@ -905,10 +905,10 @@
       <c r="B11" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4" t="s">
-        <v>1</v>
-      </c>
+      <c r="C11" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11" s="4"/>
       <c r="E11" s="6" t="s">
         <v>20</v>
       </c>
@@ -945,9 +945,7 @@
       <c r="B13" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="8" t="s">
-        <v>1</v>
-      </c>
+      <c r="C13" s="8"/>
       <c r="D13" s="8" t="s">
         <v>1</v>
       </c>
@@ -966,9 +964,7 @@
       <c r="B14" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="8" t="s">
-        <v>1</v>
-      </c>
+      <c r="C14" s="8"/>
       <c r="D14" s="8" t="s">
         <v>1</v>
       </c>

--- a/Doc/bkh.xlsx
+++ b/Doc/bkh.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="35">
   <si>
     <t>Tìm hiểu về các stack</t>
   </si>
@@ -126,6 +126,9 @@
   </si>
   <si>
     <t>Viết hàm giải cho ma trận bằng stack</t>
+  </si>
+  <si>
+    <t>Trễ hẹn ( 2/12/2018)</t>
   </si>
 </sst>
 </file>
@@ -676,7 +679,7 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -754,10 +757,10 @@
       <c r="B4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4" t="s">
+        <v>1</v>
+      </c>
       <c r="E4" s="6" t="s">
         <v>23</v>
       </c>
@@ -915,7 +918,9 @@
       <c r="F11" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="G11" s="8"/>
+      <c r="G11" s="8" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="12" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="4">

--- a/Doc/bkh.xlsx
+++ b/Doc/bkh.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\sudoku\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7D7AA60-C54A-47FF-993E-812A8D3634C3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="9195"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="9195" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="38">
   <si>
     <t>Tìm hiểu về các stack</t>
   </si>
@@ -113,33 +114,42 @@
     <t>Hoàn  thành (5/10/2018)</t>
   </si>
   <si>
-    <t>Trước dự kiến( 04/10/2018)</t>
-  </si>
-  <si>
     <t>Trể hẹn( Hoàn thành 20/10/2018)</t>
   </si>
   <si>
     <t>Hoàn tthành(09/10/2018)</t>
   </si>
   <si>
-    <t>Trễ hẹn( 09/11/2018)</t>
-  </si>
-  <si>
     <t>Viết hàm giải cho ma trận bằng stack</t>
   </si>
   <si>
-    <t>Trễ hẹn ( 2/12/2018)</t>
+    <t>Trễ hẹn( Hoàn thành 09/11/2018)</t>
+  </si>
+  <si>
+    <t>Trước dự kiến( Hoàn thành 04/10/2018)</t>
+  </si>
+  <si>
+    <t>Trễ hẹn (Hoàn thành 02/12/2018)</t>
+  </si>
+  <si>
+    <t>Trễ hẹn( Hoàn thành 10/12/2018)</t>
+  </si>
+  <si>
+    <t>Trễ hẹn(Hoàn thành 10/12/2018)</t>
+  </si>
+  <si>
+    <t>Trễ hẹn (Hoàn thành 10/12/2018)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -147,7 +157,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -155,14 +165,14 @@
       <b/>
       <sz val="20"/>
       <color rgb="FFFF0000"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -248,7 +258,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Chuẩn" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="10">
     <dxf>
@@ -398,16 +408,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A2:G14" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8" tableBorderDxfId="7">
-  <autoFilter ref="A2:G14"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A2:G14" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8" tableBorderDxfId="7">
+  <autoFilter ref="A2:G14" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="STT" dataDxfId="6"/>
-    <tableColumn id="2" name="Tên công việc" dataDxfId="5"/>
-    <tableColumn id="3" name="Lê Minh Tiến" dataDxfId="4"/>
-    <tableColumn id="4" name="Võ Minh Hiếu" dataDxfId="3"/>
-    <tableColumn id="5" name="Ngày bắt đầu dự kiến" dataDxfId="2"/>
-    <tableColumn id="6" name="Ngày kết thúc dự kiến" dataDxfId="1"/>
-    <tableColumn id="8" name="Tiến độ" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="STT" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Tên công việc" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Lê Minh Tiến" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Võ Minh Hiếu" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Ngày bắt đầu dự kiến" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Ngày kết thúc dự kiến" dataDxfId="1"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Tiến độ" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -675,25 +685,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="54.125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="17.875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="18.375" style="1" customWidth="1"/>
-    <col min="5" max="6" width="24.25" style="1" customWidth="1"/>
-    <col min="7" max="7" width="31.75" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.875" style="1"/>
+    <col min="1" max="1" width="6.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="54.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" style="1" customWidth="1"/>
+    <col min="5" max="6" width="24.28515625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="35.7109375" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" s="2" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>18</v>
       </c>
@@ -704,7 +714,7 @@
       <c r="F1" s="15"/>
       <c r="G1" s="15"/>
     </row>
-    <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>9</v>
       </c>
@@ -799,7 +809,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>1</v>
@@ -814,7 +824,7 @@
         <v>43291</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -835,7 +845,7 @@
         <v>20</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -898,7 +908,7 @@
         <v>21</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -941,7 +951,9 @@
       <c r="F12" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="G12" s="8"/>
+      <c r="G12" s="8" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="13" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
@@ -960,7 +972,9 @@
       <c r="F13" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="G13" s="8"/>
+      <c r="G13" s="8" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="14" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
@@ -979,7 +993,9 @@
       <c r="F14" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="G14" s="8"/>
+      <c r="G14" s="8" t="s">
+        <v>37</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
